--- a/2022/Realme/Others/Retail List/Realme Retail LIst.xlsx
+++ b/2022/Realme/Others/Retail List/Realme Retail LIst.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MCU\2022\Realme\Others\Retail List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\Realme\Others\Retail List\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="195">
   <si>
     <t>BD101626</t>
   </si>
@@ -619,6 +619,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Date: 18-07-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -3453,672 +3456,427 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="32.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:4" ht="15.75">
       <c r="A1" s="6" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="6" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>341001677</v>
-      </c>
-      <c r="C2" s="8" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
+    <row r="3" spans="1:4">
+      <c r="A3" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1711416599</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1737495544</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1717906020</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1765002244</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>341001674</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1711416599</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1">
-        <v>341004038</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="F4" s="7" t="s">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1711074510</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1712688979</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1689614865</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1789726772</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1718911905</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>341002536</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1737495544</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>341005750</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1791451762</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
+    <row r="20" spans="1:7">
+      <c r="A20" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1704724676</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1713738327</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1727608308</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1717319664</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1713747899</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C28" s="4">
+        <v>1712362234</v>
+      </c>
+      <c r="D28" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="1">
-        <v>341005751</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1722871513</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>13</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="1">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1717906020</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="1">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1765002244</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="1">
-        <v>17</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="1">
-        <v>18</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="1">
-        <v>19</v>
-      </c>
-      <c r="B16" s="1">
-        <v>341001668</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1711074510</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="1">
-        <v>20</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1712688979</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="1">
-        <v>21</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1689614865</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="1">
-        <v>22</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="1">
-        <v>23</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="1">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1">
-        <v>341002539</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1789726772</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="1">
-        <v>26</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="E22" s="1">
-        <v>1718911905</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="1">
-        <v>27</v>
-      </c>
-      <c r="B23" s="1">
-        <v>341002457</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="1">
-        <v>28</v>
-      </c>
-      <c r="B24" s="1">
-        <v>341002458</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="1">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="E25" s="1">
-        <v>1704724676</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1">
-        <v>30</v>
-      </c>
-      <c r="B26" s="1">
-        <v>341005749</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1713738327</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="1">
-        <v>31</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="1">
-        <v>32</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="1">
-        <v>1727608308</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="1">
-        <v>34</v>
-      </c>
-      <c r="B29" s="1">
-        <v>341001676</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="1">
-        <v>1717319664</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="4">
-        <v>36</v>
-      </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E30" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="4">
-        <v>37</v>
-      </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="11" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="12">
-        <v>1713747899</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="4">
-        <v>38</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1712362234</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="4">
-        <v>39</v>
-      </c>
-      <c r="B33" s="4"/>
-      <c r="C33" s="13" t="s">
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="B29" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="E33" s="4">
+      <c r="C29" s="4">
         <v>1727474835</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>32</v>
       </c>
     </row>
